--- a/MIL figures.xlsx
+++ b/MIL figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\GitHub\Multiple-instance-learning-improves-Ames-mutagencity-prediction-for-problematic-molecular-species\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77D1EAF-C18D-4E95-A6DC-ADCA9CCEA8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226DBA9-5B23-46EA-87AC-B6D5924E8844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="4" xr2:uid="{83A79DC6-06C2-49C7-9275-BA806385BDA0}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="2" xr2:uid="{83A79DC6-06C2-49C7-9275-BA806385BDA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Aromatic amine internal" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,28 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="151">
   <si>
     <t>Model</t>
   </si>
@@ -254,39 +265,245 @@
     <t>VALID?</t>
   </si>
   <si>
-    <t>nitros</t>
-  </si>
-  <si>
-    <t>N-OH</t>
-  </si>
-  <si>
-    <r>
-      <t>N-O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
     <t>aromatic nitros</t>
   </si>
   <si>
     <t>bal acc</t>
+  </si>
+  <si>
+    <t>Structural class</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Ames +</t>
+  </si>
+  <si>
+    <t>Excluded</t>
+  </si>
+  <si>
+    <t>Nitro aromatic compounds</t>
+  </si>
+  <si>
+    <t>771 / 6505 (11.8%)</t>
+  </si>
+  <si>
+    <t>631 / 771 (81.8%)</t>
+  </si>
+  <si>
+    <t>1018 / 9681 (10.5%)</t>
+  </si>
+  <si>
+    <t>841 / 1018 (82.6%)</t>
+  </si>
+  <si>
+    <t>4/1018 (0.39%))</t>
+  </si>
+  <si>
+    <t>434/1018 (42.63%)</t>
+  </si>
+  <si>
+    <t>1/1018 (0.10%)</t>
+  </si>
+  <si>
+    <t>Quinolines</t>
+  </si>
+  <si>
+    <t>140 / 6505 (2.15%)</t>
+  </si>
+  <si>
+    <t>66 / 140 (47.1%)</t>
+  </si>
+  <si>
+    <t>174 / 9681 (1.80%)</t>
+  </si>
+  <si>
+    <t>67/174 (38.5%)</t>
+  </si>
+  <si>
+    <t>3/174 (1.72%)</t>
+  </si>
+  <si>
+    <t>54/174 (31.03%)</t>
+  </si>
+  <si>
+    <t>88/174 (50.57%)</t>
+  </si>
+  <si>
+    <t>Furan w/o nitro</t>
+  </si>
+  <si>
+    <t>38 / 6505 (0.58 %)</t>
+  </si>
+  <si>
+    <t>9 / 38 (23.7%)</t>
+  </si>
+  <si>
+    <t>64 / 9681 (0.66%)</t>
+  </si>
+  <si>
+    <t>9/64 (14.1%)</t>
+  </si>
+  <si>
+    <t>1/64 (1.56%)</t>
+  </si>
+  <si>
+    <t>8/64 (12.00%)</t>
+  </si>
+  <si>
+    <t>28/64 (43.75%)</t>
+  </si>
+  <si>
+    <t>Ames -</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Polyaromatics</t>
+  </si>
+  <si>
+    <t>966 / 6505</t>
+  </si>
+  <si>
+    <t>825/ 966 (85.4%)</t>
+  </si>
+  <si>
+    <t>1117 / 9681</t>
+  </si>
+  <si>
+    <t>945 / 1117 (84.6%)</t>
+  </si>
+  <si>
+    <t>Phenyls, analines, Benzamides</t>
+  </si>
+  <si>
+    <t>450 / 6505</t>
+  </si>
+  <si>
+    <t>191 / 450 (43.7%)</t>
+  </si>
+  <si>
+    <t>537 / 9681</t>
+  </si>
+  <si>
+    <t>211 / 537 (39.3%)</t>
+  </si>
+  <si>
+    <t>Azidos</t>
+  </si>
+  <si>
+    <t>63 / 6505 (0.97 %)</t>
+  </si>
+  <si>
+    <t>61 / 63 (96.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89 / 9681 (0.92%)</t>
+  </si>
+  <si>
+    <t>84 / 89 (94.4%)</t>
+  </si>
+  <si>
+    <t>Alkyl/Alkenyl halides</t>
+  </si>
+  <si>
+    <t>100 / 6505 (1.54 %)</t>
+  </si>
+  <si>
+    <t>51 / 100 (51.0%)</t>
+  </si>
+  <si>
+    <t>312 / 9681 (3.22%)</t>
+  </si>
+  <si>
+    <t>161 / 312 (51.6)</t>
+  </si>
+  <si>
+    <t>structural class</t>
+  </si>
+  <si>
+    <t>Morgan NSK polynomical</t>
+  </si>
+  <si>
+    <t>Phenyls, analines, benzamides</t>
+  </si>
+  <si>
+    <t>excluded</t>
+  </si>
+  <si>
+    <t>specificity</t>
+  </si>
+  <si>
+    <t>Formatted tables</t>
+  </si>
+  <si>
+    <t>Halogen containing</t>
+  </si>
+  <si>
+    <t>Ames + (%)</t>
+  </si>
+  <si>
+    <t>Count (%)</t>
+  </si>
+  <si>
+    <t>Excluded (%)</t>
+  </si>
+  <si>
+    <t>0 / 966 (0%)</t>
+  </si>
+  <si>
+    <t>5 / 1117 (0.4%)</t>
+  </si>
+  <si>
+    <t>706 / 1117 (63.2%)</t>
+  </si>
+  <si>
+    <t>538/1117 (48.2%)</t>
+  </si>
+  <si>
+    <t>0 / 450 (0%)</t>
+  </si>
+  <si>
+    <t>10 / 537 (1.9%)</t>
+  </si>
+  <si>
+    <t>281 / 537 (52.3%)</t>
+  </si>
+  <si>
+    <t>308/537 (57.4%)</t>
+  </si>
+  <si>
+    <t>0 / 63 (0%)</t>
+  </si>
+  <si>
+    <t>4 / 89 (4.5%)</t>
+  </si>
+  <si>
+    <t>14 / 89 (15.7%)</t>
+  </si>
+  <si>
+    <t>0/89 (0%)</t>
+  </si>
+  <si>
+    <t>0 / 100 (0%)</t>
+  </si>
+  <si>
+    <t>5 / 312 (1.6%)</t>
+  </si>
+  <si>
+    <t>251 / 312 (80.4%)</t>
+  </si>
+  <si>
+    <t>213/312 (68.3%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,15 +559,95 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
+      <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="4"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,8 +683,31 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF171717"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -456,12 +776,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -494,6 +898,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,9 +911,200 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="2" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -14378,8 +14974,196 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 15" descr="ChemAxon{519fcec1-fc46-4076-a32d-9a05fcf0cf9a} CDX|eAFtVM1vG1UQn337dr3xbmM7TkqTlOpJiZSUtmlSPiotHJI6AQMJMW3U9oS6TbfpVmu7so2S9LSnnntD/ANw6Y3v8NHwVcoBiUMvgIRy4A9AggMXlM6MX9brqs/a35s3M7+Z53nz3sWblcXZudlZaQoDeiMhMKGMWLkR1hdbwaaae2lmdmZu5gUpilB6uwp33hmHX9ofwr21GhgDDsDu6j7swv+C5Pk/BMxPiUOOAYaTQ/AlwssIsETSKyS9QeDZuCwQHEKAc6SrECwSDDoC/jXyjoO7uQIPEV2UJe7rb5QHHAnPfyTAcUgjIMezATbPEiyej4HEKFtg8moLJnBTlocA07S94wTPEZxAmD6JkD9FyxlyEU4RSZN9n2EKSoeIDuYZcGCfR7d23flg/eSKZvyMSd6wCX9JCxZaURBLFAuwFtXDtnor3FTnm/WgAc4WnQOIy+Iy8cd+H3q0v7O/M67KY+aGddvcwyB9VtzSNfxRFQzDQKsxVSAZskPAqHGXpSuprt8Dx8cu/ctP3GHdBNF6EKtXm636u3Hgq0/dQdQvbQXrHbUStNu++ow9V5pxuI4eLXUpjDZudHz1uZtDff30bV994R4mUhzWw0YHoy00gni7HSF5xy2h5VwziqPGhqo1owYyv2TlShh3MsqvWFlpRR3e0FpYv+Wrr/uVtVaIMb9xi1nlxWbsq/usey26erWtlhpha2PbV7vuAOqWm5jCV9+6NuU876vv3AJK1bDR2p5qq+Vg01ffM7saBh3VvM618NUPLrY7dGoXFnz1I0eqYCiM9ID/d4VC/cQ+qL7gq4esvvUm1vBnrrDrUR/lPTyAAQLPs1A7PXHcSF6nLhbFzKH8ioyj4jB38iQc0fMohi86FKbAaCaWZj55UfN49kMgE8FtgLS9bbjz5zjri3BWcqfIRKbm91JzqWe2U/MH8P5vL7K53DM7Gfa9R6tsHu6Z85ncB+aRntlLzTfT4NQ2MhlOLcup5Vm8jZIfBCHxIYATkgpQRQUHtBPQpOsPanDmn7m0KiTDXg3u/zefhpjgG5+j4lj0aEFukO9F9+2RsFqlYFZCrU/JnwFpS2B3uxsBbEHX2qZNuHaRX9CDUYAuu6DZR5gtNZtqmre5BlZS1C6j7GJrF+cpCQqZBCWdoKTZY8x2NDufTTCkXcbZJa9dvKckKOngI/iVdYKyZh9ltqfZIptgRLsc63MZ7rkcjMc= ChemAxon{e356e27b-8371-4efc-83eb-9eacb60761b2} RS|emf:transbg,chiral_off,scale18.0,atsiz0.36000,atomFont:Microsoft Sans Serif-PLAIN-10,bondw0.180375,bondl28.00,wireThickness0.066666,stickThickness0.1,ballRadius0.5,boldbondw5.00,bondHashSpacing0.15,marginSize7.00,cpk,cv_inChain,amap,downwedge_mdl,wireframe,H_heteroterm,anybond_auto,coordBondStyle_arrow,coordBondStyleAtMulticenter_hashed ChemAxon{134adbce-ebdc-4d28-af91-27f91a716a4b} Version|21.3.0.817 ChemAxon{16212fa7-a1e4-40c8-85f7-183ff84481c5} Renderer|Marvin 21.3.0.678">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8CEC1E-BAEC-09F7-1BE8-FFDB99EA22A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6096000" y="8124825"/>
+          <a:ext cx="285750" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 33" descr="ChemAxon{2ee68608-2a6d-4b49-a4fb-710acf4fd807} CDX|eAFtVE1sG1UQnt19a2+8Tu1SVJK0hFcSmp+mxglR0mw4JHVCnCZOQ1qVqgfUTbpNjdZ2ZRsl6YW9ceBQJE7AnRM3KNDwlxYoRSpSJTjBgRyAA4eKAxcOyMyMX+x1lWd53ryZ75uZ997su/BaZiY9nE4LQ9egOQISBhxCmbnmFWbK7oYcHkulU8OpUaEn4VHxEtyavgM/Vt6HBx+uaFqbBbBztgY78J9O+tSvOkz16e2WBpoVReEIFJMoYJa0F0k7QyIewWWCRDsKOE22DIkZEgcsHf7RYpaF1VyG+yht1AXW9TfqbZaAFz7SwbLIokOUZw0iPAswee4GgVE2weDVJvRgUWYcBfRTeQMkBkmcQNE/hCJ2kpYpguhWEkm9LX/N0CkdSgQYI2BBjUf97Orz3vrxFc3413q5YAN+FyZMl/OuL1BNwPl8wavIJW9DrpQKbhGsTboH0C/qF4nf9csTP9e2a9tH5KEuY928YexikBYvlnQFf3QKmqahV+tLkA7hoUOn9jZrlxu2VgSOj23a5S37SdUE+TXXly+VyoXXfdeRn9gH0D676a5VZc6tVBz5KSNzJd9bQ0RZvuLl169VHfmZHUV74fkbjrxtHyaS7xW8YhWjTRddf6uSR/K2fRA9p0t5P19cl8ulfBGZn7Mx5/nVkPELNmbK+SoXdN4rXHfkl63G5bKHMb+yk2HjhZLvyK/ZNpdfXa3I2aJXXt9y5I7dhrbFEqZw5B07QjlXHHnXTqCW9Yrlrb6KXHQ3HPkNs7OeW5Wlq3wWjvzWxnaH6vK5aUd+x5EyGAoj3eN9ZyjU94xB8zlH3mfz9QU8wx/4hO049VEsjhfQRiIeN9Ha3zOgBSvUxXoydCkPkXFUP8yd3Asdau7E8EmLwiRYGsFJxXz8Q43h3XeACAa5DZC2W4APxrrZTncjgqGG562G5ykYF9xDIkg13O/B7eFT7O5sutMh9oOher6upnsklHbPfaTpHm24X20EP9p0z4Xc7+BbQu6epns+FPyNqb+A3M/xnhZCRH/2IXv68DMWQPeiC3w54ARKHbJ4oBwwEoAiXb23CuZvP7Uc57v/XmHbXgh6UmoavnM1PUp3aqJqQDTBX1X95bJgKcvbF0EudEh7hQ5wLKHKsbgc2L+cm9Bx6U8u5+DLb7IOuzfhj+OPGiF6+OXiSiDaHipCwFmymcEYSkr7NIiIAOoGE2e++widgxGhPrIjSZikMlT3jUOdPa7Y3cweUmxqjViEL8MMTinIMwxJKUh6nwTjofaeUAkmFFsyO63YI+EEjoIcY8iIgozuk2AilGBSJZhU7GeZParYg+EEWQXpbTmiuTDkjIIcZ8icgsyHIYsK0s+QeQVZCEOWFGSwBZJr7KQ5/gc= ChemAxon{27fe737e-f3c5-4783-a063-d4550a9f7f6f} RS|emf:transbg,chiral_off,scale18.0,atsiz0.36000,atomFont:Microsoft Sans Serif-PLAIN-10,bondw0.180375,bondl28.00,wireThickness0.066666,stickThickness0.1,ballRadius0.5,boldbondw5.00,bondHashSpacing0.15,marginSize7.00,cpk,cv_inChain,amap,downwedge_mdl,wireframe,H_heteroterm,anybond_auto,coordBondStyle_arrow,coordBondStyleAtMulticenter_hashed ChemAxon{0fd9f434-0b2c-42ce-aabe-57c0de73c526} Version|21.3.0.817 ChemAxon{28acf368-e2a8-4960-a187-7c6a2cefbcfb} Renderer|Marvin 21.3.0.678">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0520EFA7-F248-0CF1-F5CA-AD193AC6D9C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6096000" y="8124825"/>
+          <a:ext cx="571500" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 39" descr="ChemAxon{11342de8-58e8-46bf-ac6b-98ba2b84004b} CDX|eAFdVM1PE0EUf7Mf7bZbaBFDBI2ZBBJAtJZo1KweWgpKFJQAARJMZMGlrG5b3JbQ4mWvKiae8OQ/4bf4hd948+BJLhyMZw9ePBh8b1pKyzT9vTe/9zFvZt7s2LVkb6w7FlNkicHO8AhkaERMzlnpXtdc5N0norFod/S4IkWg4cY4g6lJNN9ifx/eBBbQANYubcEa/JNIj29IEG+X6jQGTPMjGArCaQToI+0MaecJQj6chgnqEKCHuCRBL0G9JsEfFtQ0rGYK1hF11BVc+DfqAU2BY48k0DRiJPALycAnpAKqkAdBwSwFkMWsAK1YlBpCgA4qr5PgEEEXQsdhhOARmkbJRdIiGNRW82eyRMshooN8CgKwJUbp7Epye757RrL0j8eBtYmyZfipqJBwbdNRUA3DqJ22cvyitciHs2kzA1qBbgOkCWmCsrT82PN9a3VrdT9vbJFT6pK8iUlqrFjYVfzRWTDG0Mraw6RD9ZCgmd0T2lSFq/XA8VinvT7R95ZbwZ4xHX4266YXHNPgT/V65PsK5kyeD5q5nMGfCc/BrGPNoIfLxy07NZc3+HPdj3z66JLBX+hNFORYaSuTx2yJjOkUczYGr+oNaOnJ2o6dSfGhrJ3ByJeCHLScfBX5SpBJ186Lgkat9LzBX9eSQ66FOd/okWpyLOsY/K3gztnT0znel7HcVNHga3oAuYEsLmHwd7qP1hw2+Hs9jFq/lXGL7Tk+YC4a/IOI7rfMPM/OirMw+Ecdmx7yQyMJg38SmZKYCjN9FvtOUqovwgfpEYOvC3r+Ap7hV3HCeoi6KRjCCwgQhEIqsh2tncx7QL0sRaou5RtGHJCaRD+3wb6ybMb0EY3ShAXK3p1y5O7nGsS7x1fk3RZtoAkeNicF74eTiugUxVuumK9XzIEd80rFfJk1biwIs46PQ0ENDYoEDdCl0Ob6sUAR5vOgHDT76worJtxKeaRjI5a+JuUUreIB+imDSt8Q8NeLBi19CoKQdCiZ6t1FpMWDoPgUoE2pKKn6oE/Uqnr3yy4h4bJcdlnZcdke/wE= ChemAxon{56de619c-799d-40f1-a40b-ebcfee0ef5a3} RS|emf:transbg,chiral_off,scale18.0,atsiz0.36000,atomFont:Microsoft Sans Serif-PLAIN-10,bondw0.180375,bondl28.00,wireThickness0.066666,stickThickness0.1,ballRadius0.5,boldbondw5.00,bondHashSpacing0.15,marginSize7.00,cpk,cv_inChain,amap,downwedge_mdl,wireframe,H_heteroterm,anybond_auto,coordBondStyle_arrow,coordBondStyleAtMulticenter_hashed ChemAxon{a7545af1-c7e3-4866-8792-c65317379a8e} Version|21.3.0.817 ChemAxon{74fcb2be-3e4e-4537-a8f7-eecce4d63be6} Renderer|Marvin 21.3.0.678">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D407AB4D-F24D-19D2-5D05-F1FEB10DF031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6096000" y="10201275"/>
+          <a:ext cx="295275" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="New external AA"/>
@@ -14398,88 +15182,6 @@
             <v>SEC</v>
           </cell>
         </row>
-        <row r="25">
-          <cell r="N25" t="str">
-            <v>SEC</v>
-          </cell>
-          <cell r="O25" t="str">
-            <v>LHS</v>
-          </cell>
-          <cell r="P25" t="str">
-            <v>scaffold</v>
-          </cell>
-          <cell r="Q25" t="str">
-            <v>random</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="M26" t="str">
-            <v>MACCS MIL</v>
-          </cell>
-          <cell r="N26">
-            <v>0.746479</v>
-          </cell>
-          <cell r="O26">
-            <v>0.72131100000000004</v>
-          </cell>
-          <cell r="P26">
-            <v>0.641509</v>
-          </cell>
-          <cell r="Q26">
-            <v>0.83333299999999999</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="M27" t="str">
-            <v>Morgan MIL</v>
-          </cell>
-          <cell r="N27">
-            <v>0.86666699999999997</v>
-          </cell>
-          <cell r="O27">
-            <v>0.8</v>
-          </cell>
-          <cell r="P27">
-            <v>0.64516099999999998</v>
-          </cell>
-          <cell r="Q27">
-            <v>0.88888900000000004</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="M28" t="str">
-            <v>MACCS TPOT</v>
-          </cell>
-          <cell r="N28">
-            <v>0.80701800000000001</v>
-          </cell>
-          <cell r="O28">
-            <v>0.769231</v>
-          </cell>
-          <cell r="P28">
-            <v>0.58064499999999997</v>
-          </cell>
-          <cell r="Q28">
-            <v>0.89230799999999999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="M29" t="str">
-            <v>Morgan TPOT</v>
-          </cell>
-          <cell r="N29">
-            <v>0.81428599999999995</v>
-          </cell>
-          <cell r="O29">
-            <v>0.8</v>
-          </cell>
-          <cell r="P29">
-            <v>0.68254000000000004</v>
-          </cell>
-          <cell r="Q29">
-            <v>0.92063499999999998</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -17532,7 +18234,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18151,13 +18853,13 @@
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -18261,13 +18963,13 @@
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -18371,13 +19073,13 @@
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -18473,13 +19175,13 @@
       <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:31" ht="33" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -18578,22 +19280,22 @@
       <c r="F27" s="9">
         <v>0.88260000000000005</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="N27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="Z27" s="14" t="s">
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="Z27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -21981,8 +22683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A972C918-7BBA-40BC-92A1-2A4B6F732300}">
   <dimension ref="A7:E11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22197,15 +22899,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59D0D8E-37AF-48A2-BF1B-9AC1638447B0}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:AF88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="C17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="23" max="26" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>63</v>
       </c>
@@ -22228,13 +22935,37 @@
         <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L1" t="s">
         <v>72</v>
       </c>
+      <c r="N1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -22270,11 +23001,25 @@
         <v>0.78506172839506172</v>
       </c>
       <c r="L2" t="b">
-        <f>IF(AND(D2+E2&gt;10,C2+F2&gt;10,OR(I2&lt;0.75,J2&lt;0.75)),TRUE,FALSE)</f>
+        <f>IF(OR(AND(D2+E2&gt;10,J2&lt;0.75),AND(C2+F2&gt;10,I2&lt;0.75)),TRUE,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="S2" s="68"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>57</v>
       </c>
@@ -22306,12 +23051,23 @@
         <f t="shared" ref="K3:K6" si="3">(I3+J3)/2</f>
         <v>0.77663927371801489</v>
       </c>
-      <c r="L3" t="b">
-        <f t="shared" ref="L3:L25" si="4">IF(AND(D3+E3&gt;10,C3+F3&gt;10,OR(I3&lt;0.75,J3&lt;0.75)),TRUE,FALSE)</f>
+      <c r="L3" s="12" t="b">
+        <f t="shared" ref="L3:L6" si="4">IF(OR(AND(D3+E3&gt;10,J3&lt;0.75),AND(C3+F3&gt;10,I3&lt;0.75)),TRUE,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="S3" s="68"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>58</v>
       </c>
@@ -22343,12 +23099,37 @@
         <f t="shared" si="3"/>
         <v>0.72552651437195581</v>
       </c>
-      <c r="L4" t="b">
+      <c r="L4" s="12" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="S4" s="68"/>
+      <c r="T4" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="V4" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="W4" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="112.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>59</v>
       </c>
@@ -22380,12 +23161,43 @@
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="L5" t="b">
+      <c r="L5" s="12" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S5" s="68"/>
+      <c r="T5" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="U5" s="76" t="str">
+        <f t="shared" ref="U5:U10" si="5">_xlfn.CONCAT(H6," / 6505 (",ROUND(H6/6505,3)*100,"%)")</f>
+        <v>1350 / 6505 (20.8%)</v>
+      </c>
+      <c r="V5" s="76" t="str">
+        <f>_xlfn.CONCAT(N6," / ",H6," (",ROUND(N6/H6,3)*100,"%)")</f>
+        <v>703 / 1350 (52.1%)</v>
+      </c>
+      <c r="W5" s="76">
+        <f>ROUND(I6,3)</f>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="X5" s="76">
+        <f>ROUND(J6,3)</f>
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="Y5" s="76">
+        <f>ROUND((C6+D6)/H6,3)</f>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="Z5" s="76">
+        <f>ROUND(K6,3)</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="112.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>60</v>
       </c>
@@ -22421,515 +23233,3150 @@
         <f t="shared" si="3"/>
         <v>0.76496841753491873</v>
       </c>
-      <c r="L6" s="16" t="b">
+      <c r="L6" s="12" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="N6">
+        <f t="shared" ref="N3:N6" si="6">C6+F6</f>
+        <v>703</v>
+      </c>
+      <c r="O6">
+        <f>D6+E6</f>
+        <v>647</v>
+      </c>
+      <c r="S6" s="68"/>
+      <c r="T6" s="78" t="str">
+        <f>A7</f>
+        <v>Anthracenes</v>
+      </c>
+      <c r="U6" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v>194 / 6505 (3%)</v>
+      </c>
+      <c r="V6" s="76" t="str">
+        <f t="shared" ref="V6:V10" si="7">_xlfn.CONCAT(N7," / ",H7," (",ROUND(N7/H7,3)*100,"%)")</f>
+        <v>107 / 194 (55.2%)</v>
+      </c>
+      <c r="W6" s="76">
+        <f t="shared" ref="W6:W10" si="8">ROUND(I7,3)</f>
+        <v>0.85</v>
+      </c>
+      <c r="X6" s="76">
+        <f t="shared" ref="X6:X10" si="9">ROUND(J7,3)</f>
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="Y6" s="76">
+        <f t="shared" ref="Y6:Y10" si="10">ROUND((C7+D7)/H7,3)</f>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="Z6" s="76">
+        <f t="shared" ref="Z6:Z10" si="11">ROUND(K7,3)</f>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="112.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>91</v>
+      </c>
+      <c r="D7">
+        <v>59</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <f>SUM(C7:F7)</f>
+        <v>194</v>
+      </c>
+      <c r="I7">
+        <f>C7/(C7+F7)</f>
+        <v>0.85046728971962615</v>
+      </c>
+      <c r="J7">
+        <f>D7/(D7+E7)</f>
+        <v>0.67816091954022983</v>
+      </c>
+      <c r="K7">
+        <f>(I7+J7)/2</f>
+        <v>0.76431410462992799</v>
+      </c>
+      <c r="L7" s="12" t="b">
+        <f>IF(OR(AND(D7+E7&gt;10,J7&lt;0.75),AND(C7+F7&gt;10,I7&lt;0.75)),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f>C7+F7</f>
+        <v>107</v>
+      </c>
+      <c r="O7">
+        <f>D7+E7</f>
+        <v>87</v>
+      </c>
+      <c r="S7" s="68"/>
+      <c r="T7" s="78" t="str">
+        <f t="shared" ref="T7:T11" si="12">A8</f>
+        <v>Acridines</v>
+      </c>
+      <c r="U7" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v>112 / 6505 (1.7%)</v>
+      </c>
+      <c r="V7" s="76" t="str">
+        <f t="shared" si="7"/>
+        <v>59 / 112 (52.7%)</v>
+      </c>
+      <c r="W7" s="76">
+        <f t="shared" si="8"/>
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="X7" s="76">
+        <f t="shared" si="9"/>
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="Y7" s="76">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z7" s="76">
+        <f t="shared" si="11"/>
+        <v>0.747</v>
+      </c>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+    </row>
+    <row r="8" spans="1:32" ht="112.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <f>SUM(C8:F8)</f>
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="I8">
         <f>C8/(C8+F8)</f>
-        <v>0.85046728971962615</v>
+        <v>0.79661016949152541</v>
       </c>
       <c r="J8">
         <f>D8/(D8+E8)</f>
-        <v>0.67816091954022983</v>
+        <v>0.69811320754716977</v>
       </c>
       <c r="K8">
         <f>(I8+J8)/2</f>
-        <v>0.76431410462992799</v>
-      </c>
-      <c r="L8" s="16" t="b">
-        <f t="shared" si="4"/>
+        <v>0.74736168851934759</v>
+      </c>
+      <c r="L8" s="12" t="b">
+        <f>IF(OR(AND(D8+E8&gt;10,J8&lt;0.75),AND(C8+F8&gt;10,I8&lt;0.75)),TRUE,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="N8">
+        <f>C8+F8</f>
+        <v>59</v>
+      </c>
+      <c r="O8">
+        <f>D8+E8</f>
+        <v>53</v>
+      </c>
+      <c r="S8" s="68"/>
+      <c r="T8" s="78" t="str">
+        <f t="shared" si="12"/>
+        <v>Thiophenes</v>
+      </c>
+      <c r="U8" s="76" t="str">
+        <f t="shared" si="5"/>
+        <v>46 / 6505 (0.7%)</v>
+      </c>
+      <c r="V8" s="76" t="str">
+        <f t="shared" si="7"/>
+        <v>29 / 46 (63%)</v>
+      </c>
+      <c r="W8" s="76">
+        <f t="shared" si="8"/>
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="X8" s="76">
+        <f t="shared" si="9"/>
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="Y8" s="76">
+        <f t="shared" si="10"/>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="Z8" s="76">
+        <f t="shared" si="11"/>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="112.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f>SUM(C9:F9)</f>
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <f>C9/(C9+F9)</f>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="J9">
+        <f>D9/(D9+E9)</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="K9">
+        <f>(I9+J9)/2</f>
+        <v>0.77383367139959436</v>
+      </c>
+      <c r="L9" s="12" t="b">
+        <f>IF(OR(AND(D9+E9&gt;10,J9&lt;0.75),AND(C9+F9&gt;10,I9&lt;0.75)),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f>C9+F9</f>
+        <v>29</v>
+      </c>
+      <c r="O9">
+        <f>D9+E9</f>
+        <v>17</v>
+      </c>
+      <c r="S9" s="68"/>
+      <c r="T9" s="78" t="str">
+        <f t="shared" si="12"/>
+        <v>aromatic nitros</v>
+      </c>
+      <c r="U9" s="76" t="str">
+        <f>_xlfn.CONCAT(H10," / 6505 (",ROUND(H10/6505,3)*100,"%)")</f>
+        <v>478 / 6505 (7.3%)</v>
+      </c>
+      <c r="V9" s="76" t="str">
+        <f t="shared" si="7"/>
+        <v>273 / 478 (57.1%)</v>
+      </c>
+      <c r="W9" s="76">
+        <f t="shared" si="8"/>
+        <v>0.747</v>
+      </c>
+      <c r="X9" s="76">
+        <f t="shared" si="9"/>
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="Y9" s="76">
+        <f t="shared" si="10"/>
+        <v>0.751</v>
+      </c>
+      <c r="Z9" s="76">
+        <f t="shared" si="11"/>
+        <v>0.752</v>
+      </c>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+    </row>
+    <row r="10" spans="1:32" ht="112.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <v>204</v>
+      </c>
+      <c r="D10">
+        <v>155</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
         <v>69</v>
       </c>
-      <c r="C10">
-        <v>47</v>
-      </c>
-      <c r="D10">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>16</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
       <c r="H10">
-        <f>SUM(C10:F10)</f>
-        <v>112</v>
+        <f t="shared" ref="H10" si="13">SUM(C10:F10)</f>
+        <v>478</v>
       </c>
       <c r="I10">
-        <f>C10/(C10+F10)</f>
-        <v>0.79661016949152541</v>
+        <f t="shared" ref="I10" si="14">C10/(C10+F10)</f>
+        <v>0.74725274725274726</v>
       </c>
       <c r="J10">
-        <f>D10/(D10+E10)</f>
-        <v>0.69811320754716977</v>
+        <f t="shared" ref="J10" si="15">D10/(D10+E10)</f>
+        <v>0.75609756097560976</v>
       </c>
       <c r="K10">
         <f>(I10+J10)/2</f>
-        <v>0.74736168851934759</v>
-      </c>
-      <c r="L10" s="16" t="b">
-        <f t="shared" si="4"/>
+        <v>0.75167515411417851</v>
+      </c>
+      <c r="L10" s="12" t="b">
+        <f>IF(OR(AND(D10+E10&gt;10,J10&lt;0.75),AND(C10+F10&gt;10,I10&lt;0.75)),TRUE,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="N10">
+        <f>C10+F10</f>
+        <v>273</v>
+      </c>
+      <c r="O10">
+        <f>D10+E10</f>
+        <v>205</v>
+      </c>
+      <c r="S10" s="68"/>
+      <c r="T10" s="78" t="str">
+        <f t="shared" si="12"/>
+        <v>Aromatic rings</v>
+      </c>
+      <c r="U10" s="76" t="str">
+        <f t="shared" ref="U10" si="16">_xlfn.CONCAT(H11," / 6505 (",ROUND(H11/6505,3)*100,"%)")</f>
+        <v>162 / 6505 (2.5%)</v>
+      </c>
+      <c r="V10" s="76" t="str">
+        <f t="shared" si="7"/>
+        <v>85 / 162 (52.5%)</v>
+      </c>
+      <c r="W10" s="76">
+        <f t="shared" si="8"/>
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="X10" s="76">
+        <f t="shared" si="9"/>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="Y10" s="76">
+        <f t="shared" si="10"/>
+        <v>0.79</v>
+      </c>
+      <c r="Z10" s="76">
+        <f t="shared" si="11"/>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12">
+    <row r="11" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <f>SUM(C11:F11)</f>
+        <v>162</v>
+      </c>
+      <c r="I11">
+        <f>C11/(C11+F11)</f>
+        <v>0.85882352941176465</v>
+      </c>
+      <c r="J11">
+        <f>D11/(D11+E11)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K11">
+        <f>(I11+J11)/2</f>
+        <v>0.78655462184873948</v>
+      </c>
+      <c r="L11" s="12" t="b">
+        <f>IF(OR(AND(D11+E11&gt;10,J11&lt;0.75),AND(C11+F11&gt;10,I11&lt;0.75)),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>C11+F11</f>
+        <v>85</v>
+      </c>
+      <c r="O11">
+        <f>D11+E11</f>
+        <v>77</v>
+      </c>
+      <c r="S11" s="68"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+    </row>
+    <row r="12" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+    </row>
+    <row r="13" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S13" s="68"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+    </row>
+    <row r="14" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S14" s="68"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+    </row>
+    <row r="15" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S15" s="68"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+    </row>
+    <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S16" s="68"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+    </row>
+    <row r="17" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S17" s="68"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+    </row>
+    <row r="18" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S18" s="68"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+    </row>
+    <row r="19" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S19" s="68"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S20" s="68"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+    </row>
+    <row r="21" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S21" s="68"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+    </row>
+    <row r="22" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S22" s="68"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+    </row>
+    <row r="23" spans="1:30" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="U23" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="W23" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="X23" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y23" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="49"/>
+    </row>
+    <row r="24" spans="1:30" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="79" t="str">
+        <f>A28</f>
+        <v>Polyaromatics</v>
+      </c>
+      <c r="U24" s="75" t="str">
+        <f>B28</f>
+        <v>Morgan NSK polynomical</v>
+      </c>
+      <c r="V24" s="76" t="str">
+        <f>_xlfn.CONCAT(C28," / 6505 (",ROUND(C28/6505,3)*100,"%)")</f>
+        <v>966 / 6505 (14.9%)</v>
+      </c>
+      <c r="W24" s="76" t="str">
+        <f>_xlfn.CONCAT(D28," / ",C28," (",ROUND(D28/C28,3)*100,"%)")</f>
+        <v>825 / 966 (85.4%)</v>
+      </c>
+      <c r="X24" s="76" t="str">
+        <f>_xlfn.CONCAT(E28," / ",C28," (",ROUND(E28/C28,3)*100,"%)")</f>
+        <v>0 / 966 (0%)</v>
+      </c>
+      <c r="Y24" s="76">
+        <f>F28</f>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="Z24" s="76">
+        <f>G28</f>
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="AA24" s="76">
+        <f>H28</f>
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="AB24" s="76">
+        <f>(Y24+Z24)/2</f>
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="AC24" s="49"/>
+      <c r="AD24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S25" s="68"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="75" t="str">
+        <f t="shared" ref="U25:U39" si="17">B29</f>
+        <v>DEREK</v>
+      </c>
+      <c r="V25" s="80" t="str">
+        <f>_xlfn.CONCAT(C29," / 6505 (",ROUND(C29/6505,3)*100,"%)")</f>
+        <v>1117 / 6505 (17.2%)</v>
+      </c>
+      <c r="W25" s="80" t="str">
+        <f>_xlfn.CONCAT(D29," / ",C29," (",ROUND(D29/C29,3)*100,"%)")</f>
+        <v>945 / 1117 (84.6%)</v>
+      </c>
+      <c r="X25" s="76" t="str">
+        <f>_xlfn.CONCAT(E29," / ",C29," (",ROUND(E29/C29,3)*100,"%)")</f>
+        <v>5 / 1117 (0.4%)</v>
+      </c>
+      <c r="Y25" s="76">
+        <f>F29</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="Z25" s="76">
+        <f>G29</f>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="AA25" s="76">
+        <f t="shared" ref="AA25:AA39" si="18">H29</f>
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="AB25" s="76">
+        <f t="shared" ref="AB25:AB39" si="19">(Y25+Z25)/2</f>
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="AC25" s="49"/>
+      <c r="AD25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S26" s="68"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>LSMA</v>
+      </c>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="76" t="str">
+        <f>_xlfn.CONCAT(E30," / ",C29," (",ROUND(E30/C29,3)*100,"%)")</f>
+        <v>706 / 1117 (63.2%)</v>
+      </c>
+      <c r="Y26" s="76">
+        <f t="shared" ref="Y26:Y39" si="20">F30</f>
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="Z26" s="76">
+        <f t="shared" ref="Z26:Z39" si="21">G30</f>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AA26" s="76">
+        <f t="shared" si="18"/>
+        <v>0.81</v>
+      </c>
+      <c r="AB26" s="76">
+        <f t="shared" si="19"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AC26" s="49"/>
+      <c r="AD26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="68"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>MC4PC</v>
+      </c>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="76" t="str">
+        <f>_xlfn.CONCAT(E31,"/",C29," (",ROUND(E31/C29,3)*100,"%)")</f>
+        <v>538/1117 (48.2%)</v>
+      </c>
+      <c r="Y27" s="76">
+        <f t="shared" si="20"/>
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="Z27" s="76">
+        <f t="shared" si="21"/>
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="AA27" s="76">
+        <f t="shared" si="18"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AB27" s="76">
+        <f t="shared" si="19"/>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="AC27" s="49"/>
+      <c r="AD27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28">
+        <v>966</v>
+      </c>
+      <c r="D28">
+        <v>825</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G28">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="S28" s="68"/>
+      <c r="T28" s="79" t="str">
+        <f>A32</f>
+        <v>Phenyls, analines, benzamides</v>
+      </c>
+      <c r="U28" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>Morgan NSK polynomical</v>
+      </c>
+      <c r="V28" s="76" t="str">
+        <f>_xlfn.CONCAT(C32," / 6505 (",ROUND(C32/6505,3)*100,"%)")</f>
+        <v>450 / 6505 (6.9%)</v>
+      </c>
+      <c r="W28" s="76" t="str">
+        <f>_xlfn.CONCAT(D32," / ",C32," (",ROUND(D32/C32,3)*100,"%)")</f>
+        <v>191 / 450 (42.4%)</v>
+      </c>
+      <c r="X28" s="76" t="str">
+        <f>_xlfn.CONCAT(E32," / ",C32," (",ROUND(E32/C32,3)*100,"%)")</f>
+        <v>0 / 450 (0%)</v>
+      </c>
+      <c r="Y28" s="76">
+        <f t="shared" si="20"/>
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="Z28" s="76">
+        <f t="shared" si="21"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AA28" s="76">
+        <f t="shared" si="18"/>
+        <v>0.751</v>
+      </c>
+      <c r="AB28" s="76">
+        <f t="shared" si="19"/>
+        <v>0.747</v>
+      </c>
+      <c r="AC28" s="49"/>
+      <c r="AD28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>1117</v>
+      </c>
+      <c r="D29">
+        <v>945</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="G29">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="H29">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="S29" s="68"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>DEREK</v>
+      </c>
+      <c r="V29" s="80" t="str">
+        <f>_xlfn.CONCAT(C33," / 6505 (",ROUND(C33/6505,3)*100,"%)")</f>
+        <v>537 / 6505 (8.3%)</v>
+      </c>
+      <c r="W29" s="80" t="str">
+        <f>_xlfn.CONCAT(D33," / ",C33," (",ROUND(D33/C33,3)*100,"%)")</f>
+        <v>211 / 537 (39.3%)</v>
+      </c>
+      <c r="X29" s="76" t="str">
+        <f>_xlfn.CONCAT(E33," / ",C33," (",ROUND(E33/C33,3)*100,"%)")</f>
+        <v>10 / 537 (1.9%)</v>
+      </c>
+      <c r="Y29" s="76">
+        <f t="shared" si="20"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="Z29" s="76">
+        <f t="shared" si="21"/>
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="AA29" s="76">
+        <f t="shared" si="18"/>
+        <v>0.751</v>
+      </c>
+      <c r="AB29" s="76">
+        <f t="shared" si="19"/>
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="AC29" s="49"/>
+      <c r="AD29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>706</v>
+      </c>
+      <c r="F30">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G30">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.81</v>
+      </c>
+      <c r="S30" s="68"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>LSMA</v>
+      </c>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="76" t="str">
+        <f>_xlfn.CONCAT(E34," / ",C33," (",ROUND(E34/C33,3)*100,"%)")</f>
+        <v>281 / 537 (52.3%)</v>
+      </c>
+      <c r="Y30" s="76">
+        <f t="shared" si="20"/>
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="Z30" s="76">
+        <f t="shared" si="21"/>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="AA30" s="76">
+        <f t="shared" si="18"/>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="AB30" s="76">
+        <f t="shared" si="19"/>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="AC30" s="49"/>
+      <c r="AD30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>538</v>
+      </c>
+      <c r="F31">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="G31">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H31">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="S31" s="68"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>MC4PC</v>
+      </c>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="76" t="str">
+        <f>_xlfn.CONCAT(E35,"/",C33," (",ROUND(E35/C33,3)*100,"%)")</f>
+        <v>308/537 (57.4%)</v>
+      </c>
+      <c r="Y31" s="76">
+        <f t="shared" si="20"/>
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="Z31" s="76">
+        <f t="shared" si="21"/>
+        <v>0.88</v>
+      </c>
+      <c r="AA31" s="76">
+        <f t="shared" si="18"/>
+        <v>0.76</v>
+      </c>
+      <c r="AB31" s="76">
+        <f t="shared" si="19"/>
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="AC31" s="49"/>
+      <c r="AD31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32">
+        <v>450</v>
+      </c>
+      <c r="D32">
+        <v>191</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G32">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="H32">
+        <v>0.751</v>
+      </c>
+      <c r="S32" s="68"/>
+      <c r="T32" s="79" t="str">
+        <f>A36</f>
+        <v>Azidos</v>
+      </c>
+      <c r="U32" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>Morgan NSK polynomical</v>
+      </c>
+      <c r="V32" s="76" t="str">
+        <f>_xlfn.CONCAT(C36," / 6505 (",ROUND(C36/6505,3)*100,"%)")</f>
+        <v>63 / 6505 (1%)</v>
+      </c>
+      <c r="W32" s="76" t="str">
+        <f>_xlfn.CONCAT(D36," / ",C36," (",ROUND(D36/C36,3)*100,"%)")</f>
+        <v>61 / 63 (96.8%)</v>
+      </c>
+      <c r="X32" s="76" t="str">
+        <f>_xlfn.CONCAT(E36," / ",C36," (",ROUND(E36/C36,3)*100,"%)")</f>
+        <v>0 / 63 (0%)</v>
+      </c>
+      <c r="Y32" s="76">
+        <f t="shared" si="20"/>
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="Z32" s="76">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="76">
+        <f t="shared" si="18"/>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="AB32" s="76">
+        <f t="shared" si="19"/>
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="AC32" s="49"/>
+      <c r="AD32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>537</v>
+      </c>
+      <c r="D33">
+        <v>211</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G33">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H33">
+        <v>0.751</v>
+      </c>
+      <c r="S33" s="68"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>DEREK</v>
+      </c>
+      <c r="V33" s="80" t="str">
+        <f>_xlfn.CONCAT(C37," / 6505 (",ROUND(C37/6505,3)*100,"%)")</f>
+        <v>89 / 6505 (1.4%)</v>
+      </c>
+      <c r="W33" s="80" t="str">
+        <f>_xlfn.CONCAT(D37," / ",C37," (",ROUND(D37/C37,3)*100,"%)")</f>
+        <v>84 / 89 (94.4%)</v>
+      </c>
+      <c r="X33" s="76" t="str">
+        <f>_xlfn.CONCAT(E37," / ",C37," (",ROUND(E37/C37,3)*100,"%)")</f>
+        <v>4 / 89 (4.5%)</v>
+      </c>
+      <c r="Y33" s="76">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Z33" s="76">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="76">
+        <f t="shared" si="18"/>
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="AB33" s="76">
+        <f t="shared" si="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC33" s="49"/>
+      <c r="AD33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>281</v>
+      </c>
+      <c r="F34">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="G34">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="H34">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="S34" s="69"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>LSMA</v>
+      </c>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="76" t="str">
+        <f>_xlfn.CONCAT(E38," / ",C37," (",ROUND(E38/C37,3)*100,"%)")</f>
+        <v>14 / 89 (15.7%)</v>
+      </c>
+      <c r="Y34" s="76">
+        <f t="shared" si="20"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Z34" s="76">
+        <f t="shared" si="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA34" s="76">
+        <f t="shared" si="18"/>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AB34" s="76">
+        <f t="shared" si="19"/>
+        <v>0.48750000000000004</v>
+      </c>
+      <c r="AC34" s="49"/>
+      <c r="AD34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>308</v>
+      </c>
+      <c r="F35">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G35">
+        <v>0.88</v>
+      </c>
+      <c r="H35">
+        <v>0.76</v>
+      </c>
+      <c r="S35" s="68"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>MC4PC</v>
+      </c>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="76" t="str">
+        <f>_xlfn.CONCAT(E39,"/",C37," (",ROUND(E39/C37,3)*100,"%)")</f>
+        <v>0/89 (0%)</v>
+      </c>
+      <c r="Y35" s="76">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z35" s="76">
+        <f t="shared" si="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA35" s="76">
+        <f t="shared" si="18"/>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AB35" s="76">
+        <f t="shared" si="19"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC35" s="49"/>
+      <c r="AD35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>61</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="S36" s="68"/>
+      <c r="T36" s="79" t="str">
+        <f>A40</f>
+        <v>Alkyl/Alkenyl halides</v>
+      </c>
+      <c r="U36" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>Morgan NSK polynomical</v>
+      </c>
+      <c r="V36" s="76" t="str">
+        <f>_xlfn.CONCAT(C40," / 6505 (",ROUND(C40/6505,3)*100,"%)")</f>
+        <v>100 / 6505 (1.5%)</v>
+      </c>
+      <c r="W36" s="76" t="str">
+        <f>_xlfn.CONCAT(D40," / ",C40," (",ROUND(D40/C40,3)*100,"%)")</f>
+        <v>51 / 100 (51%)</v>
+      </c>
+      <c r="X36" s="76" t="str">
+        <f>_xlfn.CONCAT(E40," / ",C40," (",ROUND(E40/C40,3)*100,"%)")</f>
+        <v>0 / 100 (0%)</v>
+      </c>
+      <c r="Y36" s="76">
+        <f t="shared" si="20"/>
+        <v>0.73</v>
+      </c>
+      <c r="Z36" s="76">
+        <f t="shared" si="21"/>
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="AA36" s="76">
+        <f t="shared" si="18"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="AB36" s="76">
+        <f t="shared" si="19"/>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="AC36" s="49"/>
+      <c r="AD36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>89</v>
+      </c>
+      <c r="D37">
+        <v>84</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="S37" s="68"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>DEREK</v>
+      </c>
+      <c r="V37" s="80" t="str">
+        <f>_xlfn.CONCAT(C41," / 6505 (",ROUND(C41/6505,3)*100,"%)")</f>
+        <v>312 / 6505 (4.8%)</v>
+      </c>
+      <c r="W37" s="80" t="str">
+        <f>_xlfn.CONCAT(D41," / ",C41," (",ROUND(D41/C41,3)*100,"%)")</f>
+        <v>161 / 312 (51.6%)</v>
+      </c>
+      <c r="X37" s="76" t="str">
+        <f>_xlfn.CONCAT(E41," / ",C41," (",ROUND(E41/C41,3)*100,"%)")</f>
+        <v>5 / 312 (1.6%)</v>
+      </c>
+      <c r="Y37" s="76">
+        <f t="shared" si="20"/>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="Z37" s="76">
+        <f t="shared" si="21"/>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AA37" s="76">
+        <f t="shared" si="18"/>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="AB37" s="76">
+        <f t="shared" si="19"/>
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="AC37" s="49"/>
+      <c r="AD37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38">
         <v>14</v>
       </c>
-      <c r="E12">
+      <c r="F38">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.8</v>
+      </c>
+      <c r="H38">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="S38" s="68"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>LSMA</v>
+      </c>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="76" t="str">
+        <f>_xlfn.CONCAT(E42," / ",C41," (",ROUND(E42/C41,3)*100,"%)")</f>
+        <v>251 / 312 (80.4%)</v>
+      </c>
+      <c r="Y38" s="76">
+        <f t="shared" si="20"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Z38" s="76">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AA38" s="76">
+        <f t="shared" si="18"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AB38" s="76">
+        <f t="shared" si="19"/>
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="AC38" s="49"/>
+      <c r="AD38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0.3</v>
+      </c>
+      <c r="G39">
+        <v>0.8</v>
+      </c>
+      <c r="H39">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="S39" s="68"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>MC4PC</v>
+      </c>
+      <c r="V39" s="80"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="76" t="str">
+        <f>_xlfn.CONCAT(E43,"/",C41," (",ROUND(E43/C41,3)*100,"%)")</f>
+        <v>213/312 (68.3%)</v>
+      </c>
+      <c r="Y39" s="76">
+        <f t="shared" si="20"/>
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="Z39" s="76">
+        <f t="shared" si="21"/>
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="AA39" s="76">
+        <f t="shared" si="18"/>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AB39" s="76">
+        <f t="shared" si="19"/>
+        <v>0.64</v>
+      </c>
+      <c r="AC39" s="49"/>
+      <c r="AD39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>51</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0.73</v>
+      </c>
+      <c r="G40">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="H40">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="S40" s="68"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="74"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="74"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="74"/>
+      <c r="AA40" s="74"/>
+      <c r="AB40" s="74"/>
+      <c r="AC40" s="49"/>
+    </row>
+    <row r="41" spans="1:30" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>312</v>
+      </c>
+      <c r="D41">
+        <v>161</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="G41">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="H41">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="S41" s="68"/>
+      <c r="T41" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="U41" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="V41" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="W41" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="X41" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y41" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="AB41" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="49"/>
+    </row>
+    <row r="42" spans="1:30" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>251</v>
+      </c>
+      <c r="F42">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="S42" s="68"/>
+      <c r="T42" s="79" t="str">
+        <f>A46</f>
+        <v>Nitro aromatic compounds</v>
+      </c>
+      <c r="U42" s="75" t="str">
+        <f>B46</f>
+        <v>Morgan NSK polynomial</v>
+      </c>
+      <c r="V42" s="76" t="str">
+        <f>_xlfn.CONCAT(C46," / 6505 (",ROUND(C46/6505,3)*100,"%)")</f>
+        <v>771 / 6505 (11.9%)</v>
+      </c>
+      <c r="W42" s="76" t="str">
+        <f>_xlfn.CONCAT(D46," / ",C46," (",ROUND(D46/C46,3)*100,"%)")</f>
+        <v>631 / 771 (81.8%)</v>
+      </c>
+      <c r="X42" s="73" t="str">
+        <f>_xlfn.CONCAT(E46," / ",C46," (",ROUND(E46/C46,3)*100,"%)")</f>
+        <v>0 / 771 (0%)</v>
+      </c>
+      <c r="Y42" s="76">
+        <f>F46</f>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="Z42" s="76">
+        <f>G46</f>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AA42" s="76">
+        <f>H46</f>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="AB42" s="76">
+        <f>(Y42+Z42)/2</f>
+        <v>0.72100000000000009</v>
+      </c>
+      <c r="AC42" s="49"/>
+    </row>
+    <row r="43" spans="1:30" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>213</v>
+      </c>
+      <c r="F43">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="G43">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H43">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="S43" s="68"/>
+      <c r="T43" s="79"/>
+      <c r="U43" s="75" t="str">
+        <f t="shared" ref="U43:U53" si="22">B47</f>
+        <v>DEREK</v>
+      </c>
+      <c r="V43" s="80" t="str">
+        <f>_xlfn.CONCAT(C47," / 6505 (",ROUND(C47/6505,3)*100,"%)")</f>
+        <v>1018 / 6505 (15.6%)</v>
+      </c>
+      <c r="W43" s="80" t="str">
+        <f>_xlfn.CONCAT(D47," / ",C47," (",ROUND(D47/C47,3)*100,"%)")</f>
+        <v>841 / 1018 (82.6%)</v>
+      </c>
+      <c r="X43" s="73" t="str">
+        <f>_xlfn.CONCAT(E47," / ",C47," (",ROUND(E47/C47,3)*100,"%)")</f>
+        <v>4 / 1018 (0.4%)</v>
+      </c>
+      <c r="Y43" s="76">
+        <f>F47</f>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="Z43" s="76">
+        <f>G47</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AA43" s="76">
+        <f t="shared" ref="AA43:AA53" si="23">H47</f>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="AB43" s="76">
+        <f t="shared" ref="AB43:AB53" si="24">(Y43+Z43)/2</f>
+        <v>0.5625</v>
+      </c>
+      <c r="AC43" s="49"/>
+    </row>
+    <row r="44" spans="1:30" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S44" s="68"/>
+      <c r="T44" s="79"/>
+      <c r="U44" s="75" t="str">
+        <f t="shared" si="22"/>
+        <v>LSMA</v>
+      </c>
+      <c r="V44" s="80"/>
+      <c r="W44" s="80"/>
+      <c r="X44" s="73" t="str">
+        <f>_xlfn.CONCAT(E48," / ",C47," (",ROUND(E48/C47,3)*100,"%)")</f>
+        <v>434 / 1018 (42.6%)</v>
+      </c>
+      <c r="Y44" s="76">
+        <f t="shared" ref="Y44:Y53" si="25">F48</f>
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="Z44" s="76">
+        <f t="shared" ref="Z44:Z53" si="26">G48</f>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AA44" s="76">
+        <f t="shared" si="23"/>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="AB44" s="76">
+        <f t="shared" si="24"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="AC44" s="49"/>
+    </row>
+    <row r="45" spans="1:30" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="68"/>
+      <c r="T45" s="79"/>
+      <c r="U45" s="75" t="str">
+        <f t="shared" si="22"/>
+        <v>MC4PC</v>
+      </c>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="73" t="str">
+        <f>_xlfn.CONCAT(E49,"/",C47," (",ROUND(E49/C47,3)*100,"%)")</f>
+        <v>1/1018 (0.1%)</v>
+      </c>
+      <c r="Y45" s="76">
+        <f t="shared" si="25"/>
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="Z45" s="76">
+        <f t="shared" si="26"/>
+        <v>0.379</v>
+      </c>
+      <c r="AA45" s="76">
+        <f t="shared" si="23"/>
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="AB45" s="76">
+        <f t="shared" si="24"/>
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="AC45" s="49"/>
+    </row>
+    <row r="46" spans="1:30" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>771</v>
+      </c>
+      <c r="D46">
+        <v>631</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="G46">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="H46">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="S46" s="68"/>
+      <c r="T46" s="79" t="str">
+        <f>A50</f>
+        <v>Quinolines</v>
+      </c>
+      <c r="U46" s="75" t="str">
+        <f t="shared" si="22"/>
+        <v>Morgan NSK polynomial</v>
+      </c>
+      <c r="V46" s="76" t="str">
+        <f>_xlfn.CONCAT(C50," / 6505 (",ROUND(C50/6505,3)*100,"%)")</f>
+        <v>140 / 6505 (2.2%)</v>
+      </c>
+      <c r="W46" s="76" t="str">
+        <f>_xlfn.CONCAT(D50," / ",C50," (",ROUND(D50/C50,3)*100,"%)")</f>
+        <v>66 / 140 (47.1%)</v>
+      </c>
+      <c r="X46" s="73" t="str">
+        <f>_xlfn.CONCAT(E50," / ",C50," (",ROUND(E50/C50,3)*100,"%)")</f>
+        <v>0 / 140 (0%)</v>
+      </c>
+      <c r="Y46" s="76">
+        <f t="shared" si="25"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="Z46" s="76">
+        <f t="shared" si="26"/>
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="AA46" s="76">
+        <f t="shared" si="23"/>
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="AB46" s="76">
+        <f t="shared" si="24"/>
+        <v>0.72650000000000003</v>
+      </c>
+      <c r="AC46" s="49"/>
+    </row>
+    <row r="47" spans="1:30" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>1018</v>
+      </c>
+      <c r="D47">
+        <v>841</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G47">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="H47">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="S47" s="68"/>
+      <c r="T47" s="79"/>
+      <c r="U47" s="75" t="str">
+        <f t="shared" si="22"/>
+        <v>DEREK</v>
+      </c>
+      <c r="V47" s="80" t="str">
+        <f>_xlfn.CONCAT(C51," / 6505 (",ROUND(C51/6505,3)*100,"%)")</f>
+        <v>174 / 6505 (2.7%)</v>
+      </c>
+      <c r="W47" s="80" t="str">
+        <f>_xlfn.CONCAT(D51," / ",C51," (",ROUND(D51/C51,3)*100,"%)")</f>
+        <v>67 / 174 (38.5%)</v>
+      </c>
+      <c r="X47" s="73" t="str">
+        <f>_xlfn.CONCAT(E51," / ",C51," (",ROUND(E51/C51,3)*100,"%)")</f>
+        <v>3 / 174 (1.7%)</v>
+      </c>
+      <c r="Y47" s="76">
+        <f t="shared" si="25"/>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="Z47" s="76">
+        <f t="shared" si="26"/>
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="AA47" s="76">
+        <f t="shared" si="23"/>
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="AB47" s="76">
+        <f t="shared" si="24"/>
+        <v>0.67549999999999999</v>
+      </c>
+      <c r="AC47" s="49"/>
+    </row>
+    <row r="48" spans="1:30" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>434</v>
+      </c>
+      <c r="F48">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G48">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H48">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="S48" s="68"/>
+      <c r="T48" s="79"/>
+      <c r="U48" s="75" t="str">
+        <f t="shared" si="22"/>
+        <v>LSMA</v>
+      </c>
+      <c r="V48" s="80"/>
+      <c r="W48" s="80"/>
+      <c r="X48" s="73" t="str">
+        <f>_xlfn.CONCAT(E52," / ",C51," (",ROUND(E52/C51,3)*100,"%)")</f>
+        <v>54 / 174 (31%)</v>
+      </c>
+      <c r="Y48" s="76">
+        <f t="shared" si="25"/>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="Z48" s="76">
+        <f t="shared" si="26"/>
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AA48" s="76">
+        <f t="shared" si="23"/>
+        <v>0.45</v>
+      </c>
+      <c r="AB48" s="76">
+        <f t="shared" si="24"/>
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AC48" s="49"/>
+    </row>
+    <row r="49" spans="1:29" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="G49">
+        <v>0.379</v>
+      </c>
+      <c r="H49">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="S49" s="68"/>
+      <c r="T49" s="79"/>
+      <c r="U49" s="75" t="str">
+        <f t="shared" si="22"/>
+        <v>MC4PC</v>
+      </c>
+      <c r="V49" s="80"/>
+      <c r="W49" s="80"/>
+      <c r="X49" s="73" t="str">
+        <f>_xlfn.CONCAT(E53,"/",C51," (",ROUND(E53/C51,3)*100,"%)")</f>
+        <v>88/174 (50.6%)</v>
+      </c>
+      <c r="Y49" s="76">
+        <f t="shared" si="25"/>
+        <v>0.438</v>
+      </c>
+      <c r="Z49" s="76">
+        <f t="shared" si="26"/>
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AA49" s="76">
+        <f t="shared" si="23"/>
+        <v>0.64</v>
+      </c>
+      <c r="AB49" s="76">
+        <f t="shared" si="24"/>
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="AC49" s="49"/>
+    </row>
+    <row r="50" spans="1:29" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>140</v>
+      </c>
+      <c r="D50">
+        <v>66</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G50">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="H50">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="S50" s="68"/>
+      <c r="T50" s="79" t="str">
+        <f>A54</f>
+        <v>Furan w/o nitro</v>
+      </c>
+      <c r="U50" s="75" t="str">
+        <f t="shared" si="22"/>
+        <v>Morgan NSK polynomial</v>
+      </c>
+      <c r="V50" s="76" t="str">
+        <f>_xlfn.CONCAT(C54," / 6505 (",ROUND(C54/6505,3)*100,"%)")</f>
+        <v>38 / 6505 (0.6%)</v>
+      </c>
+      <c r="W50" s="76" t="str">
+        <f>_xlfn.CONCAT(D54," / ",C54," (",ROUND(D54/C54,3)*100,"%)")</f>
+        <v>9 / 38 (23.7%)</v>
+      </c>
+      <c r="X50" s="73" t="str">
+        <f>_xlfn.CONCAT(E54," / ",C54," (",ROUND(E54/C54,3)*100,"%)")</f>
+        <v>0 / 38 (0%)</v>
+      </c>
+      <c r="Y50" s="76">
+        <f t="shared" si="25"/>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="Z50" s="76">
+        <f t="shared" si="26"/>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="AA50" s="76">
+        <f t="shared" si="23"/>
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="AB50" s="76">
+        <f t="shared" si="24"/>
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="AC50" s="49"/>
+    </row>
+    <row r="51" spans="1:29" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>174</v>
+      </c>
+      <c r="D51">
+        <v>67</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G51">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="H51">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="S51" s="68"/>
+      <c r="T51" s="79"/>
+      <c r="U51" s="75" t="str">
+        <f t="shared" si="22"/>
+        <v>DEREK</v>
+      </c>
+      <c r="V51" s="80" t="str">
+        <f>_xlfn.CONCAT(C55," / 6505 (",ROUND(C55/6505,3)*100,"%)")</f>
+        <v>64 / 6505 (1%)</v>
+      </c>
+      <c r="W51" s="80" t="str">
+        <f>_xlfn.CONCAT(D55," / ",C55," (",ROUND(D55/C55,3)*100,"%)")</f>
+        <v>9 / 64 (14.1%)</v>
+      </c>
+      <c r="X51" s="73" t="str">
+        <f>_xlfn.CONCAT(E55," / ",C55," (",ROUND(E55/C55,3)*100,"%)")</f>
+        <v>1 / 64 (1.6%)</v>
+      </c>
+      <c r="Y51" s="76">
+        <f t="shared" si="25"/>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="Z51" s="76">
+        <f t="shared" si="26"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="AA51" s="76">
+        <f t="shared" si="23"/>
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="AB51" s="76">
+        <f t="shared" si="24"/>
+        <v>0.63</v>
+      </c>
+      <c r="AC51" s="49"/>
+    </row>
+    <row r="52" spans="1:29" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>54</v>
+      </c>
+      <c r="F52">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="G52">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="H52">
+        <v>0.45</v>
+      </c>
+      <c r="S52" s="68"/>
+      <c r="T52" s="79"/>
+      <c r="U52" s="75" t="str">
+        <f t="shared" si="22"/>
+        <v>LSMA</v>
+      </c>
+      <c r="V52" s="80"/>
+      <c r="W52" s="80"/>
+      <c r="X52" s="73" t="str">
+        <f>_xlfn.CONCAT(E56," / ",C55," (",ROUND(E56/C55,3)*100,"%)")</f>
+        <v>8 / 64 (12.5%)</v>
+      </c>
+      <c r="Y52" s="76">
+        <f t="shared" si="25"/>
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="Z52" s="76">
+        <f t="shared" si="26"/>
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="AA52" s="76">
+        <f t="shared" si="23"/>
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="AB52" s="76">
+        <f t="shared" si="24"/>
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="AC52" s="49"/>
+    </row>
+    <row r="53" spans="1:29" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>88</v>
+      </c>
+      <c r="F53">
+        <v>0.438</v>
+      </c>
+      <c r="G53">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H53">
+        <v>0.64</v>
+      </c>
+      <c r="S53" s="68"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="75" t="str">
+        <f t="shared" si="22"/>
+        <v>MC4PC</v>
+      </c>
+      <c r="V53" s="80"/>
+      <c r="W53" s="80"/>
+      <c r="X53" s="73" t="str">
+        <f>_xlfn.CONCAT(E57,"/",C55," (",ROUND(E57/C55,3)*100,"%)")</f>
+        <v>28/64 (43.8%)</v>
+      </c>
+      <c r="Y53" s="76">
+        <f t="shared" si="25"/>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Z53" s="76">
+        <f t="shared" si="26"/>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AA53" s="76">
+        <f t="shared" si="23"/>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AB53" s="76">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC53" s="49"/>
+    </row>
+    <row r="54" spans="1:29" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>38</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G54">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H54">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="S54" s="68"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="49"/>
+      <c r="Y54" s="49"/>
+      <c r="Z54" s="49"/>
+      <c r="AA54" s="49"/>
+      <c r="AB54" s="49"/>
+      <c r="AC54" s="49"/>
+    </row>
+    <row r="55" spans="1:29" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>64</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G55">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="H55">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="S55" s="68"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+    </row>
+    <row r="56" spans="1:29" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56">
         <v>8</v>
       </c>
-      <c r="H12">
-        <f>SUM(C12:F12)</f>
-        <v>46</v>
-      </c>
-      <c r="I12">
-        <f>C12/(C12+F12)</f>
-        <v>0.72413793103448276</v>
-      </c>
-      <c r="J12">
-        <f>D12/(D12+E12)</f>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="K12">
-        <f>(I12+J12)/2</f>
-        <v>0.77383367139959436</v>
-      </c>
-      <c r="L12" s="16" t="b">
-        <f t="shared" si="4"/>
+      <c r="F56">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G56">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="H56">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="S56" s="68"/>
+    </row>
+    <row r="57" spans="1:29" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>28</v>
+      </c>
+      <c r="F57">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H57">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="S57" s="68"/>
+    </row>
+    <row r="58" spans="1:29" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S58" s="68"/>
+    </row>
+    <row r="59" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S59" s="68"/>
+    </row>
+    <row r="60" spans="1:29" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="18" t="s">
         <v>1</v>
       </c>
+      <c r="G60" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L60" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="M60" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N60" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O60" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="68"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14">
+    <row r="61" spans="1:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="22">
+        <v>0</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="24">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="G61" s="25">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="H61" s="22">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="I61" s="22">
+        <f>(F61+G61)/2</f>
+        <v>0.72100000000000009</v>
+      </c>
+      <c r="K61" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="L61" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M61" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="N61" s="39">
+        <v>0</v>
+      </c>
+      <c r="O61" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="P61" s="58">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="Q61" s="39">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="R61" s="39">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="S61" s="68"/>
+    </row>
+    <row r="62" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="33"/>
+      <c r="B62" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="22">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G62" s="27">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="H62" s="22">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="I62" s="22">
+        <f t="shared" ref="I62:I73" si="27">(F62+G62)/2</f>
+        <v>0.5625</v>
+      </c>
+      <c r="K62" s="33"/>
+      <c r="L62" s="51">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="M62" s="37"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="68"/>
+    </row>
+    <row r="63" spans="1:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="33"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="22">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G63" s="25">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H63" s="22">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="I63" s="22">
+        <f t="shared" si="27"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="K63" s="33"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="60"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="68"/>
+    </row>
+    <row r="64" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="35"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="22">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="G64" s="25">
+        <v>0.379</v>
+      </c>
+      <c r="H64" s="22">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I64" s="22">
+        <f t="shared" si="27"/>
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="K64" s="33"/>
+      <c r="L64" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M64" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N64" s="22">
+        <v>5</v>
+      </c>
+      <c r="O64" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P64" s="27">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="Q64" s="22">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="R64" s="22">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="S64" s="68"/>
+    </row>
+    <row r="65" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="39">
+        <v>0</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="39">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G65" s="43">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="H65" s="39">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="I65" s="22">
+        <f t="shared" si="27"/>
+        <v>0.72650000000000003</v>
+      </c>
+      <c r="K65" s="33"/>
+      <c r="L65" s="51">
+        <v>-0.115</v>
+      </c>
+      <c r="M65" s="37"/>
+      <c r="N65" s="22">
+        <v>706</v>
+      </c>
+      <c r="O65" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P65" s="53">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="Q65" s="22">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="R65" s="22">
+        <v>0.81</v>
+      </c>
+      <c r="S65" s="68"/>
+    </row>
+    <row r="66" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="33"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="35"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="22">
+        <v>538</v>
+      </c>
+      <c r="O66" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P66" s="53">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="Q66" s="22">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="R66" s="22">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="S66" s="68"/>
+    </row>
+    <row r="67" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="33"/>
+      <c r="B67" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="22">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G67" s="25">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="H67" s="22">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="I67" s="22">
+        <f t="shared" si="27"/>
+        <v>0.67549999999999999</v>
+      </c>
+      <c r="K67" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="L67" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M67" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="N67" s="39">
+        <v>0</v>
+      </c>
+      <c r="O67" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="P67" s="61">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="Q67" s="39">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="R67" s="39">
+        <v>0.751</v>
+      </c>
+      <c r="S67" s="68"/>
+    </row>
+    <row r="68" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="33"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="22">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="G68" s="27">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="H68" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="I68" s="22">
+        <f t="shared" si="27"/>
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="K68" s="33"/>
+      <c r="L68" s="51">
+        <v>-7.4300000000000005E-2</v>
+      </c>
+      <c r="M68" s="37"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="62"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="68"/>
+    </row>
+    <row r="69" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="35"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="22">
+        <v>0.438</v>
+      </c>
+      <c r="G69" s="25">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H69" s="22">
+        <v>0.64</v>
+      </c>
+      <c r="I69" s="22">
+        <f t="shared" si="27"/>
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="K69" s="33"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="68"/>
+    </row>
+    <row r="70" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="30">
+        <v>0</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="30">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G70" s="32">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H70" s="30">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="I70" s="22">
+        <f t="shared" si="27"/>
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="K70" s="33"/>
+      <c r="L70" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="M70" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="N70" s="22">
+        <v>10</v>
+      </c>
+      <c r="O70" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P70" s="27">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="Q70" s="22">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="R70" s="22">
+        <v>0.751</v>
+      </c>
+      <c r="S70" s="68"/>
+    </row>
+    <row r="71" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="33"/>
+      <c r="B71" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="22">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G71" s="25">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="H71" s="22">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="I71" s="22">
+        <f t="shared" si="27"/>
+        <v>0.63</v>
+      </c>
+      <c r="K71" s="33"/>
+      <c r="L71" s="51">
+        <v>-5.5500000000000001E-2</v>
+      </c>
+      <c r="M71" s="37"/>
+      <c r="N71" s="22">
+        <v>281</v>
+      </c>
+      <c r="O71" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P71" s="53">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="Q71" s="22">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="R71" s="22">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="S71" s="68"/>
+    </row>
+    <row r="72" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="33"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="22">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G72" s="27">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="H72" s="22">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="I72" s="22">
+        <f t="shared" si="27"/>
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="K72" s="35"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="22">
+        <v>308</v>
+      </c>
+      <c r="O72" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P72" s="53">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="Q72" s="22">
+        <v>0.88</v>
+      </c>
+      <c r="R72" s="22">
+        <v>0.76</v>
+      </c>
+      <c r="S72" s="68"/>
+    </row>
+    <row r="73" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="22">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G73" s="25">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H73" s="22">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="I73" s="22">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="K73" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="L73" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="M73" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="N73" s="30">
+        <v>0</v>
+      </c>
+      <c r="O73" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P73" s="54">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="Q73" s="30">
+        <v>0</v>
+      </c>
+      <c r="R73" s="30">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="S73" s="68"/>
+    </row>
+    <row r="74" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K74" s="33"/>
+      <c r="L74" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="M74" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="N74" s="22">
+        <v>4</v>
+      </c>
+      <c r="O74" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P74" s="53">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>1686</v>
-      </c>
-      <c r="D14">
-        <v>1393</v>
-      </c>
-      <c r="E14">
-        <v>431</v>
-      </c>
-      <c r="F14">
-        <v>451</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ref="H14:H19" si="5">SUM(C14:F14)</f>
-        <v>3961</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ref="I14:I19" si="6">C14/(C14+F14)</f>
-        <v>0.78895648104819838</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ref="J14:J19" si="7">D14/(D14+E14)</f>
-        <v>0.76370614035087714</v>
-      </c>
-      <c r="K14">
-        <f>(I14+J14)/2</f>
-        <v>0.77633131069953776</v>
-      </c>
-      <c r="L14" t="b">
-        <f t="shared" si="4"/>
+      <c r="Q74" s="22">
         <v>0</v>
       </c>
+      <c r="R74" s="22">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="S74" s="68"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1089</v>
-      </c>
-      <c r="D15">
-        <v>894</v>
-      </c>
-      <c r="E15">
-        <v>280</v>
-      </c>
-      <c r="F15">
-        <v>288</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="5"/>
-        <v>2551</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="6"/>
-        <v>0.79084967320261434</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="7"/>
-        <v>0.76149914821124365</v>
-      </c>
-      <c r="K15">
-        <f>(I15+J15)/2</f>
-        <v>0.77617441070692905</v>
-      </c>
-      <c r="L15" t="b">
-        <f t="shared" si="4"/>
+    <row r="75" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K75" s="33"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="22">
+        <v>14</v>
+      </c>
+      <c r="O75" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P75" s="27">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q75" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="R75" s="22">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="S75" s="68"/>
+    </row>
+    <row r="76" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K76" s="35"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="22">
         <v>0</v>
       </c>
+      <c r="O76" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P76" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="Q76" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="R76" s="22">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="S76" s="68"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>538</v>
-      </c>
-      <c r="D16">
-        <v>461</v>
-      </c>
-      <c r="E16">
-        <v>143</v>
-      </c>
-      <c r="F16">
-        <v>128</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="5"/>
-        <v>1270</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="6"/>
-        <v>0.80780780780780781</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="7"/>
-        <v>0.76324503311258274</v>
-      </c>
-      <c r="K16">
-        <f>(I16+J16)/2</f>
-        <v>0.78552642046019527</v>
-      </c>
-      <c r="L16" t="b">
-        <f t="shared" si="4"/>
+    <row r="77" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K77" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="L77" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="M77" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="N77" s="30">
         <v>0</v>
       </c>
+      <c r="O77" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P77" s="54">
+        <v>0.73</v>
+      </c>
+      <c r="Q77" s="55">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="R77" s="55">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="S77" s="68"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>243</v>
-      </c>
-      <c r="D17">
-        <v>186</v>
-      </c>
-      <c r="E17">
-        <v>59</v>
-      </c>
-      <c r="F17">
-        <v>47</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="5"/>
-        <v>535</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="6"/>
-        <v>0.83793103448275863</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="7"/>
-        <v>0.75918367346938775</v>
-      </c>
-      <c r="K17">
-        <f>(I17+J17)/2</f>
-        <v>0.79855735397607319</v>
-      </c>
-      <c r="L17" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+    <row r="78" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K78" s="33"/>
+      <c r="L78" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="M78" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="N78" s="22">
+        <v>5</v>
+      </c>
+      <c r="O78" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P78" s="53">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="Q78" s="22">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="R78" s="22">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="S78" s="68"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>73</v>
-      </c>
-      <c r="D18">
-        <v>55</v>
-      </c>
-      <c r="E18">
-        <v>22</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="5"/>
-        <v>162</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="6"/>
-        <v>0.85882352941176465</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="7"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="K18">
-        <f>(I18+J18)/2</f>
-        <v>0.78655462184873948</v>
-      </c>
-      <c r="L18" s="16" t="b">
-        <f t="shared" si="4"/>
+    <row r="79" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K79" s="33"/>
+      <c r="L79" s="65"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="22">
+        <v>251</v>
+      </c>
+      <c r="O79" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P79" s="27">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Q79" s="22">
         <v>1</v>
       </c>
+      <c r="R79" s="22">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="S79" s="68"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="6"/>
-        <v>0.95</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="K19">
-        <f>(I19+J19)/2</f>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="L19" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+    <row r="80" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K80" s="35"/>
+      <c r="L80" s="66"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="22">
+        <v>213</v>
+      </c>
+      <c r="O80" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P80" s="53">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="Q80" s="22">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="R80" s="22">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="S80" s="68"/>
     </row>
-    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21">
-        <v>153</v>
-      </c>
-      <c r="D21">
-        <v>124</v>
-      </c>
-      <c r="E21">
-        <v>28</v>
-      </c>
-      <c r="F21">
-        <v>48</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ref="H21:H22" si="8">SUM(C21:F21)</f>
-        <v>353</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ref="I21:I22" si="9">C21/(C21+F21)</f>
-        <v>0.76119402985074625</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ref="J21:J22" si="10">D21/(D21+E21)</f>
-        <v>0.81578947368421051</v>
-      </c>
-      <c r="K21">
-        <f>(I21+J21)/2</f>
-        <v>0.78849175176747832</v>
-      </c>
-      <c r="L21" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+    <row r="81" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S81" s="68"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f>SUM(C22:G22)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" t="e">
-        <f>(I22+J22)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="82" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S82" s="68"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <f>SUM(C21:C22)</f>
-        <v>153</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23:F23" si="11">SUM(D21:D22)</f>
-        <v>124</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="11"/>
-        <v>48</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ref="H23" si="12">SUM(C23:F23)</f>
-        <v>353</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ref="I23" si="13">C23/(C23+F23)</f>
-        <v>0.76119402985074625</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ref="J23" si="14">D23/(D23+E23)</f>
-        <v>0.81578947368421051</v>
-      </c>
-      <c r="K23">
-        <f>(I23+J23)/2</f>
-        <v>0.78849175176747832</v>
-      </c>
-      <c r="L23" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+    <row r="83" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S83" s="68"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25">
-        <v>204</v>
-      </c>
-      <c r="D25">
-        <v>155</v>
-      </c>
-      <c r="E25">
-        <v>50</v>
-      </c>
-      <c r="F25">
-        <v>69</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ref="H25" si="15">SUM(C25:F25)</f>
-        <v>478</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ref="I25" si="16">C25/(C25+F25)</f>
-        <v>0.74725274725274726</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ref="J25" si="17">D25/(D25+E25)</f>
-        <v>0.75609756097560976</v>
-      </c>
-      <c r="K25">
-        <f>(I25+J25)/2</f>
-        <v>0.75167515411417851</v>
-      </c>
-      <c r="L25" s="16" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="84" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S84" s="68"/>
     </row>
+    <row r="85" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S85" s="68"/>
+    </row>
+    <row r="86" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S86" s="68"/>
+    </row>
+    <row r="87" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S87" s="68"/>
+    </row>
+    <row r="88" spans="19:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A21:A22"/>
+  <mergeCells count="62">
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="V37:V39"/>
+    <mergeCell ref="W37:W39"/>
+    <mergeCell ref="V33:V35"/>
+    <mergeCell ref="W33:W35"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="W29:W31"/>
+    <mergeCell ref="T46:T49"/>
+    <mergeCell ref="T50:T53"/>
+    <mergeCell ref="V43:V45"/>
+    <mergeCell ref="W43:W45"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="V51:V53"/>
+    <mergeCell ref="W51:W53"/>
+    <mergeCell ref="T28:T31"/>
+    <mergeCell ref="T24:T27"/>
+    <mergeCell ref="T32:T35"/>
+    <mergeCell ref="T36:T39"/>
+    <mergeCell ref="T42:T45"/>
+    <mergeCell ref="T1:AF2"/>
+    <mergeCell ref="K73:K76"/>
+    <mergeCell ref="L74:L76"/>
+    <mergeCell ref="M74:M76"/>
+    <mergeCell ref="K77:K80"/>
+    <mergeCell ref="L78:L80"/>
+    <mergeCell ref="M78:M80"/>
+    <mergeCell ref="Q61:Q63"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="K67:K72"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="N67:N69"/>
+    <mergeCell ref="O67:O69"/>
+    <mergeCell ref="P67:P69"/>
+    <mergeCell ref="Q67:Q69"/>
+    <mergeCell ref="R67:R69"/>
+    <mergeCell ref="M70:M72"/>
+    <mergeCell ref="K61:K66"/>
+    <mergeCell ref="M61:M63"/>
+    <mergeCell ref="N61:N63"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="P61:P63"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23079,26 +26526,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27A0CDF8-4D48-48F2-821A-BA200455B158}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{904984A1-511A-4196-A1CC-B29225ACDC78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fe1a2599-491e-4857-943b-7964d155ab98"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23122,9 +26558,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{904984A1-511A-4196-A1CC-B29225ACDC78}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27A0CDF8-4D48-48F2-821A-BA200455B158}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fe1a2599-491e-4857-943b-7964d155ab98"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>